--- a/natmiOut/OldD2/LR-pairs_lrc2p/Clec11a-Itgb1.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Clec11a-Itgb1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,12 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Neutro</t>
+  </si>
+  <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Clec11a</t>
   </si>
   <si>
@@ -92,12 +98,6 @@
   </si>
   <si>
     <t>M2</t>
-  </si>
-  <si>
-    <t>Neutro</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.11864077655984</v>
+        <v>5.364099333333333</v>
       </c>
       <c r="H2">
-        <v>5.11864077655984</v>
+        <v>16.092298</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.979386671976144</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.9832028896782715</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>164.57213892454</v>
+        <v>164.5772705</v>
       </c>
       <c r="N2">
-        <v>164.57213892454</v>
+        <v>329.154541</v>
       </c>
       <c r="O2">
-        <v>0.2369291145770381</v>
+        <v>0.2320765473082729</v>
       </c>
       <c r="P2">
-        <v>0.2369291145770381</v>
+        <v>0.1805598029509348</v>
       </c>
       <c r="Q2">
-        <v>842.3856609848214</v>
+        <v>882.8088269708696</v>
       </c>
       <c r="R2">
-        <v>842.3856609848214</v>
+        <v>5296.852961825218</v>
       </c>
       <c r="S2">
-        <v>0.2369291145770381</v>
+        <v>0.2272926773119636</v>
       </c>
       <c r="T2">
-        <v>0.2369291145770381</v>
+        <v>0.1775269200210984</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.11864077655984</v>
+        <v>5.364099333333333</v>
       </c>
       <c r="H3">
-        <v>5.11864077655984</v>
+        <v>16.092298</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.979386671976144</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.9832028896782715</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>111.37128191755</v>
+        <v>118.764328</v>
       </c>
       <c r="N3">
-        <v>111.37128191755</v>
+        <v>356.292984</v>
       </c>
       <c r="O3">
-        <v>0.1603375843959462</v>
+        <v>0.1674740084210307</v>
       </c>
       <c r="P3">
-        <v>0.1603375843959462</v>
+        <v>0.1954467673099505</v>
       </c>
       <c r="Q3">
-        <v>570.0695849609129</v>
+        <v>637.0636526485812</v>
       </c>
       <c r="R3">
-        <v>570.0695849609129</v>
+        <v>5733.572873837232</v>
       </c>
       <c r="S3">
-        <v>0.1603375843959462</v>
+        <v>0.1640218117499779</v>
       </c>
       <c r="T3">
-        <v>0.1603375843959462</v>
+        <v>0.1921638263974201</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.11864077655984</v>
+        <v>5.364099333333333</v>
       </c>
       <c r="H4">
-        <v>5.11864077655984</v>
+        <v>16.092298</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.979386671976144</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.9832028896782715</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>84.02165097277781</v>
+        <v>84.53195700000001</v>
       </c>
       <c r="N4">
-        <v>84.02165097277781</v>
+        <v>253.595871</v>
       </c>
       <c r="O4">
-        <v>0.1209632171057159</v>
+        <v>0.1192016653221345</v>
       </c>
       <c r="P4">
-        <v>0.1209632171057159</v>
+        <v>0.1391116171686985</v>
       </c>
       <c r="Q4">
-        <v>430.0766487831392</v>
+        <v>453.437814189062</v>
       </c>
       <c r="R4">
-        <v>430.0766487831392</v>
+        <v>4080.940327701558</v>
       </c>
       <c r="S4">
-        <v>0.1209632171057159</v>
+        <v>0.1167445222938594</v>
       </c>
       <c r="T4">
-        <v>0.1209632171057159</v>
+        <v>0.1367749439880818</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>5.11864077655984</v>
+        <v>5.364099333333333</v>
       </c>
       <c r="H5">
-        <v>5.11864077655984</v>
+        <v>16.092298</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0.979386671976144</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0.9832028896782715</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>79.00129757073969</v>
+        <v>79.63570166666666</v>
       </c>
       <c r="N5">
-        <v>79.00129757073969</v>
+        <v>238.907105</v>
       </c>
       <c r="O5">
-        <v>0.1137355788542978</v>
+        <v>0.1122972730628175</v>
       </c>
       <c r="P5">
-        <v>0.1137355788542978</v>
+        <v>0.1310540017808179</v>
       </c>
       <c r="Q5">
-        <v>404.379263146726</v>
+        <v>427.1738142196988</v>
       </c>
       <c r="R5">
-        <v>404.379263146726</v>
+        <v>3844.56432797729</v>
       </c>
       <c r="S5">
-        <v>0.1137355788542978</v>
+        <v>0.1099824525369891</v>
       </c>
       <c r="T5">
-        <v>0.1137355788542978</v>
+        <v>0.1288526732548015</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
         <v>21</v>
       </c>
-      <c r="C6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>5.11864077655984</v>
+        <v>5.364099333333333</v>
       </c>
       <c r="H6">
-        <v>5.11864077655984</v>
+        <v>16.092298</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0.979386671976144</v>
       </c>
       <c r="J6">
-        <v>1</v>
+        <v>0.9832028896782715</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>116.0747569815</v>
+        <v>121.733284</v>
       </c>
       <c r="N6">
-        <v>116.0747569815</v>
+        <v>365.199852</v>
       </c>
       <c r="O6">
-        <v>0.1671090232896694</v>
+        <v>0.1716606440086599</v>
       </c>
       <c r="P6">
-        <v>0.1671090232896694</v>
+        <v>0.2003326860218846</v>
       </c>
       <c r="Q6">
-        <v>594.1449842147798</v>
+        <v>652.9894275488772</v>
       </c>
       <c r="R6">
-        <v>594.1449842147798</v>
+        <v>5876.904847939895</v>
       </c>
       <c r="S6">
-        <v>0.1671090232896694</v>
+        <v>0.168122146844923</v>
       </c>
       <c r="T6">
-        <v>0.1671090232896694</v>
+        <v>0.1969676757937268</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,805 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>5.364099333333333</v>
+      </c>
+      <c r="H7">
+        <v>16.092298</v>
+      </c>
+      <c r="I7">
+        <v>0.979386671976144</v>
+      </c>
+      <c r="J7">
+        <v>0.9832028896782715</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>139.9082645</v>
+      </c>
+      <c r="N7">
+        <v>279.816529</v>
+      </c>
+      <c r="O7">
+        <v>0.1972898618770847</v>
+      </c>
+      <c r="P7">
+        <v>0.1534951247677137</v>
+      </c>
+      <c r="Q7">
+        <v>750.4818283322736</v>
+      </c>
+      <c r="R7">
+        <v>4502.890969993642</v>
+      </c>
+      <c r="S7">
+        <v>0.1932230612384312</v>
+      </c>
+      <c r="T7">
+        <v>0.1509168502231429</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
         <v>21</v>
       </c>
-      <c r="C7" t="s">
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G8">
+        <v>0.04912366666666667</v>
+      </c>
+      <c r="H8">
+        <v>0.147371</v>
+      </c>
+      <c r="I8">
+        <v>0.008969085287619975</v>
+      </c>
+      <c r="J8">
+        <v>0.009004033672181349</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>164.5772705</v>
+      </c>
+      <c r="N8">
+        <v>329.154541</v>
+      </c>
+      <c r="O8">
+        <v>0.2320765473082729</v>
+      </c>
+      <c r="P8">
+        <v>0.1805598029509348</v>
+      </c>
+      <c r="Q8">
+        <v>8.084638976951833</v>
+      </c>
+      <c r="R8">
+        <v>48.507833861711</v>
+      </c>
+      <c r="S8">
+        <v>0.002081514346064272</v>
+      </c>
+      <c r="T8">
+        <v>0.001625766545612646</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G9">
+        <v>0.04912366666666667</v>
+      </c>
+      <c r="H9">
+        <v>0.147371</v>
+      </c>
+      <c r="I9">
+        <v>0.008969085287619975</v>
+      </c>
+      <c r="J9">
+        <v>0.009004033672181349</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>118.764328</v>
+      </c>
+      <c r="N9">
+        <v>356.292984</v>
+      </c>
+      <c r="O9">
+        <v>0.1674740084210307</v>
+      </c>
+      <c r="P9">
+        <v>0.1954467673099505</v>
+      </c>
+      <c r="Q9">
+        <v>5.834139260562667</v>
+      </c>
+      <c r="R9">
+        <v>52.507253345064</v>
+      </c>
+      <c r="S9">
+        <v>0.00150208866498781</v>
+      </c>
+      <c r="T9">
+        <v>0.001759809273977787</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.04912366666666667</v>
+      </c>
+      <c r="H10">
+        <v>0.147371</v>
+      </c>
+      <c r="I10">
+        <v>0.008969085287619975</v>
+      </c>
+      <c r="J10">
+        <v>0.009004033672181349</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>84.53195700000001</v>
+      </c>
+      <c r="N10">
+        <v>253.595871</v>
+      </c>
+      <c r="O10">
+        <v>0.1192016653221345</v>
+      </c>
+      <c r="P10">
+        <v>0.1391116171686985</v>
+      </c>
+      <c r="Q10">
+        <v>4.152519678349001</v>
+      </c>
+      <c r="R10">
+        <v>37.372677105141</v>
+      </c>
+      <c r="S10">
+        <v>0.001069129902700556</v>
+      </c>
+      <c r="T10">
+        <v>0.001252565685178563</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G11">
+        <v>0.04912366666666667</v>
+      </c>
+      <c r="H11">
+        <v>0.147371</v>
+      </c>
+      <c r="I11">
+        <v>0.008969085287619975</v>
+      </c>
+      <c r="J11">
+        <v>0.009004033672181349</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>79.63570166666666</v>
+      </c>
+      <c r="N11">
+        <v>238.907105</v>
+      </c>
+      <c r="O11">
+        <v>0.1122972730628175</v>
+      </c>
+      <c r="P11">
+        <v>0.1310540017808179</v>
+      </c>
+      <c r="Q11">
+        <v>3.911997663439445</v>
+      </c>
+      <c r="R11">
+        <v>35.207978970955</v>
+      </c>
+      <c r="S11">
+        <v>0.001007203819667559</v>
+      </c>
+      <c r="T11">
+        <v>0.001180014644908599</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.04912366666666667</v>
+      </c>
+      <c r="H12">
+        <v>0.147371</v>
+      </c>
+      <c r="I12">
+        <v>0.008969085287619975</v>
+      </c>
+      <c r="J12">
+        <v>0.009004033672181349</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>121.733284</v>
+      </c>
+      <c r="N12">
+        <v>365.199852</v>
+      </c>
+      <c r="O12">
+        <v>0.1716606440086599</v>
+      </c>
+      <c r="P12">
+        <v>0.2003326860218846</v>
+      </c>
+      <c r="Q12">
+        <v>5.979985265454666</v>
+      </c>
+      <c r="R12">
+        <v>53.819867389092</v>
+      </c>
+      <c r="S12">
+        <v>0.001539638956641441</v>
+      </c>
+      <c r="T12">
+        <v>0.001803802250579583</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
         <v>22</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.04912366666666667</v>
+      </c>
+      <c r="H13">
+        <v>0.147371</v>
+      </c>
+      <c r="I13">
+        <v>0.008969085287619975</v>
+      </c>
+      <c r="J13">
+        <v>0.009004033672181349</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>139.9082645</v>
+      </c>
+      <c r="N13">
+        <v>279.816529</v>
+      </c>
+      <c r="O13">
+        <v>0.1972898618770847</v>
+      </c>
+      <c r="P13">
+        <v>0.1534951247677137</v>
+      </c>
+      <c r="Q13">
+        <v>6.872806949209834</v>
+      </c>
+      <c r="R13">
+        <v>41.236841695259</v>
+      </c>
+      <c r="S13">
+        <v>0.001769509597558338</v>
+      </c>
+      <c r="T13">
+        <v>0.001382075271924172</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.5</v>
+      </c>
+      <c r="G14">
+        <v>0.0637755</v>
+      </c>
+      <c r="H14">
+        <v>0.127551</v>
+      </c>
+      <c r="I14">
+        <v>0.01164424273623592</v>
+      </c>
+      <c r="J14">
+        <v>0.007793076649547082</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>164.5772705</v>
+      </c>
+      <c r="N14">
+        <v>329.154541</v>
+      </c>
+      <c r="O14">
+        <v>0.2320765473082729</v>
+      </c>
+      <c r="P14">
+        <v>0.1805598029509348</v>
+      </c>
+      <c r="Q14">
+        <v>10.49599771477275</v>
+      </c>
+      <c r="R14">
+        <v>41.983990859091</v>
+      </c>
+      <c r="S14">
+        <v>0.002702355650245068</v>
+      </c>
+      <c r="T14">
+        <v>0.001407116384223752</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.5</v>
+      </c>
+      <c r="G15">
+        <v>0.0637755</v>
+      </c>
+      <c r="H15">
+        <v>0.127551</v>
+      </c>
+      <c r="I15">
+        <v>0.01164424273623592</v>
+      </c>
+      <c r="J15">
+        <v>0.007793076649547082</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>118.764328</v>
+      </c>
+      <c r="N15">
+        <v>356.292984</v>
+      </c>
+      <c r="O15">
+        <v>0.1674740084210307</v>
+      </c>
+      <c r="P15">
+        <v>0.1954467673099505</v>
+      </c>
+      <c r="Q15">
+        <v>7.574254400364</v>
+      </c>
+      <c r="R15">
+        <v>45.445526402184</v>
+      </c>
+      <c r="S15">
+        <v>0.001950108006064899</v>
+      </c>
+      <c r="T15">
+        <v>0.001523131638552637</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.5</v>
+      </c>
+      <c r="G16">
+        <v>0.0637755</v>
+      </c>
+      <c r="H16">
+        <v>0.127551</v>
+      </c>
+      <c r="I16">
+        <v>0.01164424273623592</v>
+      </c>
+      <c r="J16">
+        <v>0.007793076649547082</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>84.53195700000001</v>
+      </c>
+      <c r="N16">
+        <v>253.595871</v>
+      </c>
+      <c r="O16">
+        <v>0.1192016653221345</v>
+      </c>
+      <c r="P16">
+        <v>0.1391116171686985</v>
+      </c>
+      <c r="Q16">
+        <v>5.391067823653501</v>
+      </c>
+      <c r="R16">
+        <v>32.346406941921</v>
+      </c>
+      <c r="S16">
+        <v>0.001388013125574489</v>
+      </c>
+      <c r="T16">
+        <v>0.001084107495438117</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" t="s">
         <v>27</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>5.11864077655984</v>
-      </c>
-      <c r="H7">
-        <v>5.11864077655984</v>
-      </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-      <c r="J7">
-        <v>1</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>139.563836886697</v>
-      </c>
-      <c r="N7">
-        <v>139.563836886697</v>
-      </c>
-      <c r="O7">
-        <v>0.2009254817773325</v>
-      </c>
-      <c r="P7">
-        <v>0.2009254817773325</v>
-      </c>
-      <c r="Q7">
-        <v>714.3771464213935</v>
-      </c>
-      <c r="R7">
-        <v>714.3771464213935</v>
-      </c>
-      <c r="S7">
-        <v>0.2009254817773325</v>
-      </c>
-      <c r="T7">
-        <v>0.2009254817773325</v>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.5</v>
+      </c>
+      <c r="G17">
+        <v>0.0637755</v>
+      </c>
+      <c r="H17">
+        <v>0.127551</v>
+      </c>
+      <c r="I17">
+        <v>0.01164424273623592</v>
+      </c>
+      <c r="J17">
+        <v>0.007793076649547082</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>79.63570166666666</v>
+      </c>
+      <c r="N17">
+        <v>238.907105</v>
+      </c>
+      <c r="O17">
+        <v>0.1122972730628175</v>
+      </c>
+      <c r="P17">
+        <v>0.1310540017808179</v>
+      </c>
+      <c r="Q17">
+        <v>5.0788066916425</v>
+      </c>
+      <c r="R17">
+        <v>30.472840149855</v>
+      </c>
+      <c r="S17">
+        <v>0.001307616706160814</v>
+      </c>
+      <c r="T17">
+        <v>0.001021313881107794</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.5</v>
+      </c>
+      <c r="G18">
+        <v>0.0637755</v>
+      </c>
+      <c r="H18">
+        <v>0.127551</v>
+      </c>
+      <c r="I18">
+        <v>0.01164424273623592</v>
+      </c>
+      <c r="J18">
+        <v>0.007793076649547082</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>121.733284</v>
+      </c>
+      <c r="N18">
+        <v>365.199852</v>
+      </c>
+      <c r="O18">
+        <v>0.1716606440086599</v>
+      </c>
+      <c r="P18">
+        <v>0.2003326860218846</v>
+      </c>
+      <c r="Q18">
+        <v>7.763601053741999</v>
+      </c>
+      <c r="R18">
+        <v>46.581606322452</v>
+      </c>
+      <c r="S18">
+        <v>0.001998858207095417</v>
+      </c>
+      <c r="T18">
+        <v>0.001561207977578196</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.5</v>
+      </c>
+      <c r="G19">
+        <v>0.0637755</v>
+      </c>
+      <c r="H19">
+        <v>0.127551</v>
+      </c>
+      <c r="I19">
+        <v>0.01164424273623592</v>
+      </c>
+      <c r="J19">
+        <v>0.007793076649547082</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>139.9082645</v>
+      </c>
+      <c r="N19">
+        <v>279.816529</v>
+      </c>
+      <c r="O19">
+        <v>0.1972898618770847</v>
+      </c>
+      <c r="P19">
+        <v>0.1534951247677137</v>
+      </c>
+      <c r="Q19">
+        <v>8.922719522619749</v>
+      </c>
+      <c r="R19">
+        <v>35.690878090479</v>
+      </c>
+      <c r="S19">
+        <v>0.002297291041095231</v>
+      </c>
+      <c r="T19">
+        <v>0.001196199272646586</v>
       </c>
     </row>
   </sheetData>
